--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 3 Shirts and Pants 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 3 Shirts and Pants 1.xlsx_with_dialog_acts.xlsx
@@ -655,12 +655,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1951,12 +1951,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2383,12 +2383,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2959,12 +2959,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3427,12 +3427,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4435,12 +4435,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5407,12 +5407,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5515,12 +5515,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5623,12 +5623,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
